--- a/Outputs/3. Prosumer percentage/Output Files/90/Output_0_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/90/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1350049.022858443</v>
+        <v>1343458.474927847</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12157779.51246666</v>
+        <v>11943472.88418848</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1786423.703430227</v>
+        <v>1195188.384728778</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7146901.460444083</v>
+        <v>7345564.046649002</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>211.0303877483494</v>
+        <v>231.8935956012157</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -822,7 +822,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>276.0214800671292</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -898,19 +898,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>103.4488356343272</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>129.0110892700986</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1059,19 +1059,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>39.39633626821598</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>378.3530948399457</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>20.24094791062952</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1308,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>43.86775592768605</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1378,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>274.8945858552177</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>66.32250716336708</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>101.9929615813387</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526348037</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1618,7 +1618,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>18.12405672778838</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>178.6464323367727</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1776,16 +1776,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>75.38193086464887</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>144.2606928207246</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2013,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>143.1136563942916</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2253,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>11.12043047005107</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2304,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>133.9073134702971</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2481,19 +2481,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>86.66428804999369</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2541,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>178.1243574277518</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2955,10 +2955,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>11.12043047005107</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>12.82988994717986</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3426,22 +3426,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>123.0673923170405</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3480,16 +3480,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>218.008057705788</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>205.6631443644948</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3745,19 +3745,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>117.3548641417483</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>383.8718259702707</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686376</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>146.3034971231916</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3979,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>147.6833840480613</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3994,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>178.6464323367727</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>124.2290557831218</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>182.6006091555207</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2300.165929011923</v>
+        <v>783.8507533973008</v>
       </c>
       <c r="C2" t="n">
-        <v>1873.265199025223</v>
+        <v>760.990427451005</v>
       </c>
       <c r="D2" t="n">
-        <v>1660.103191198608</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E2" t="n">
-        <v>1234.126251346466</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F2" t="n">
-        <v>809.0020695358658</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6630071253144</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>106.7946285993492</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>71.89775734282044</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>434.501216159716</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>434.501216159716</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>434.501216159716</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M2" t="n">
-        <v>1324.235963277119</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N2" t="n">
-        <v>2213.970710394522</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O2" t="n">
-        <v>2430.523108478911</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P2" t="n">
-        <v>3138.802387636838</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
-        <v>3594.887867141022</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>3594.887867141022</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>3490.520573014162</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>3490.520573014162</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>3490.520573014162</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V2" t="n">
-        <v>3133.031158140411</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W2" t="n">
-        <v>3133.031158140411</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X2" t="n">
-        <v>2721.311159308158</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y2" t="n">
-        <v>2720.014293303453</v>
+        <v>799.6587136484268</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>639.0212483742757</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>521.5153448917805</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>417.6753864070655</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>312.9734526800027</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>219.3276223629069</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>125.2738505805109</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>71.89775734282044</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>71.89775734282044</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>71.89775734282044</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>662.38268391116</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L3" t="n">
-        <v>1416.439911060551</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M3" t="n">
-        <v>1416.439911060551</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N3" t="n">
-        <v>1416.439911060551</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O3" t="n">
-        <v>1416.439911060551</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P3" t="n">
-        <v>1416.439911060551</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>1880.58538792333</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>1880.58538792333</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1799.261140484585</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1657.381204782263</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1472.6130087019</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1267.639869841166</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1071.118492674383</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>907.6411464410461</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>767.9482577943385</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2334.339189378901</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>2162.366626257817</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>2162.366626257817</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>1996.158420410671</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>1824.296646185231</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>1658.039676479463</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>1514.243407987618</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>1414.474839727893</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>1471.966167952051</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>1698.493769157889</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>2053.183090452309</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>2444.36888542256</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>2821.860396298596</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>3177.288524978359</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>3467.88773690026</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>3594.887867141022</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>3547.849253828195</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>3547.849253828195</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>3304.509906054095</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U4" t="n">
-        <v>3304.509906054095</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V4" t="n">
-        <v>3025.700330228712</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W4" t="n">
-        <v>2750.847926401225</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>2750.847926401225</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>2524.505158090967</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2177.531292217814</v>
+        <v>638.1652587604844</v>
       </c>
       <c r="C5" t="n">
-        <v>1750.630562231114</v>
+        <v>615.3049328141886</v>
       </c>
       <c r="D5" t="n">
-        <v>1327.337941416114</v>
+        <v>192.0123119991889</v>
       </c>
       <c r="E5" t="n">
-        <v>901.3610015639716</v>
+        <v>170.0757761874505</v>
       </c>
       <c r="F5" t="n">
-        <v>476.2368197533718</v>
+        <v>148.9919984172548</v>
       </c>
       <c r="G5" t="n">
-        <v>71.89775734282044</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>71.89775734282044</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>71.89775734282044</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>71.89775734282044</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>787.4060653183195</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1677.140812435722</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>2566.875559553125</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>2566.875559553125</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>3412.020209703937</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>3594.887867141022</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>3594.887867141022</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>3594.887867141022</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>3490.520573014162</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>3490.520573014162</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>3490.520573014162</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>3133.031158140411</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W5" t="n">
-        <v>3133.031158140411</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X5" t="n">
-        <v>3002.716926554453</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y5" t="n">
-        <v>2597.379656509343</v>
+        <v>1058.013623052015</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639.0212483742757</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>521.5153448917805</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>417.6753864070655</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>312.9734526800027</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>219.3276223629069</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>125.2738505805109</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>71.89775734282044</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>71.89775734282044</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>71.89775734282044</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>71.89775734282044</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>71.89775734282044</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>101.3693627944557</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="N6" t="n">
-        <v>991.1041099118586</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>1880.58538792333</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1880.58538792333</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1880.58538792333</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1880.58538792333</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1799.261140484585</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1657.381204782263</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1472.6130087019</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1267.639869841166</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1071.118492674383</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>907.6411464410461</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>767.9482577943385</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1055.310311607333</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>883.3377484862492</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D7" t="n">
-        <v>720.0209756130199</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E7" t="n">
-        <v>553.8127697658734</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F7" t="n">
-        <v>381.9509955404339</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>215.694025834666</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>71.89775734282044</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>71.89775734282044</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>129.3890855669785</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>355.9166867728156</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>710.6060080672364</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1101.791803037487</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1479.283313913523</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1834.711442593286</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2125.310654515187</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2252.310784755949</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2205.272171443122</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2035.137123962257</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1791.797776188157</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1511.613327688461</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1511.613327688461</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1511.613327688461</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1471.819048629657</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>1245.476280319399</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1020.453694912912</v>
+        <v>1823.699199097248</v>
       </c>
       <c r="C8" t="n">
-        <v>593.5529649262119</v>
+        <v>1800.838873150952</v>
       </c>
       <c r="D8" t="n">
-        <v>170.2603441112121</v>
+        <v>1377.546252335952</v>
       </c>
       <c r="E8" t="n">
-        <v>148.3238082994737</v>
+        <v>951.56931248381</v>
       </c>
       <c r="F8" t="n">
-        <v>127.240030529278</v>
+        <v>526.4451306732102</v>
       </c>
       <c r="G8" t="n">
-        <v>106.7946285993492</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="H8" t="n">
-        <v>106.7946285993492</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I8" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J8" t="n">
-        <v>71.89775734282044</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K8" t="n">
-        <v>80.53897563800069</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L8" t="n">
-        <v>970.2737227554036</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M8" t="n">
-        <v>1860.008469872806</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="N8" t="n">
-        <v>2749.743216990209</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O8" t="n">
-        <v>3594.887867141022</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P8" t="n">
-        <v>3594.887867141022</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q8" t="n">
-        <v>3594.887867141022</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R8" t="n">
-        <v>3594.887867141022</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S8" t="n">
-        <v>3490.520573014162</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T8" t="n">
-        <v>3269.595002058795</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U8" t="n">
-        <v>3011.240092655207</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V8" t="n">
-        <v>2653.750677781457</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W8" t="n">
-        <v>2257.359328081804</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X8" t="n">
-        <v>1845.639329249551</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y8" t="n">
-        <v>1440.302059204442</v>
+        <v>2205.874042369921</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>639.0212483742757</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C9" t="n">
-        <v>521.5153448917805</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D9" t="n">
-        <v>417.6753864070655</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E9" t="n">
-        <v>312.9734526800027</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F9" t="n">
-        <v>219.3276223629069</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G9" t="n">
-        <v>125.2738505805109</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H9" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I9" t="n">
-        <v>71.89775734282044</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J9" t="n">
-        <v>71.89775734282044</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="K9" t="n">
-        <v>71.89775734282044</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="L9" t="n">
-        <v>908.6965654257266</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="M9" t="n">
-        <v>908.6965654257266</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="N9" t="n">
-        <v>1798.431312543129</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="O9" t="n">
-        <v>1798.431312543129</v>
+        <v>984.1371179795135</v>
       </c>
       <c r="P9" t="n">
-        <v>1880.58538792333</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q9" t="n">
-        <v>1880.58538792333</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R9" t="n">
-        <v>1880.58538792333</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S9" t="n">
-        <v>1799.261140484585</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T9" t="n">
-        <v>1657.381204782263</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U9" t="n">
-        <v>1472.6130087019</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V9" t="n">
-        <v>1267.639869841166</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W9" t="n">
-        <v>1071.118492674383</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X9" t="n">
-        <v>907.6411464410461</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y9" t="n">
-        <v>767.9482577943385</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>955.824907688908</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C10" t="n">
-        <v>783.8523445678239</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D10" t="n">
-        <v>620.5355716945946</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E10" t="n">
-        <v>454.3273658474482</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F10" t="n">
-        <v>282.4655916220086</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G10" t="n">
-        <v>116.2086219162407</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H10" t="n">
-        <v>116.2086219162407</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I10" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J10" t="n">
-        <v>129.3890855669785</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K10" t="n">
-        <v>355.9166867728156</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L10" t="n">
-        <v>710.6060080672364</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M10" t="n">
-        <v>1101.791803037487</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N10" t="n">
-        <v>1479.283313913523</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O10" t="n">
-        <v>1834.711442593286</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P10" t="n">
-        <v>2125.310654515187</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q10" t="n">
-        <v>2252.310784755949</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R10" t="n">
-        <v>2205.272171443122</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S10" t="n">
-        <v>2035.137123962257</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T10" t="n">
-        <v>2035.137123962257</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U10" t="n">
-        <v>1754.952675462561</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="V10" t="n">
-        <v>1473.24120807059</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W10" t="n">
-        <v>1198.388804243103</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X10" t="n">
-        <v>955.824907688908</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.824907688908</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1604.101469398726</v>
+        <v>1890.392972205249</v>
       </c>
       <c r="C11" t="n">
-        <v>1177.200739412026</v>
+        <v>1463.492242218549</v>
       </c>
       <c r="D11" t="n">
-        <v>753.908118597026</v>
+        <v>1040.19962140355</v>
       </c>
       <c r="E11" t="n">
-        <v>476.2368197533718</v>
+        <v>614.2226815514072</v>
       </c>
       <c r="F11" t="n">
-        <v>476.2368197533718</v>
+        <v>189.0984997408074</v>
       </c>
       <c r="G11" t="n">
-        <v>71.89775734282044</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="H11" t="n">
-        <v>71.89775734282044</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I11" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J11" t="n">
-        <v>92.61898293141087</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K11" t="n">
-        <v>808.1272909069099</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L11" t="n">
-        <v>1697.862038024313</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M11" t="n">
-        <v>2587.596785141716</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="N11" t="n">
-        <v>3477.331532259119</v>
+        <v>4075.48317132356</v>
       </c>
       <c r="O11" t="n">
-        <v>3477.331532259119</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="P11" t="n">
-        <v>3477.331532259119</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="Q11" t="n">
-        <v>3477.331532259119</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R11" t="n">
-        <v>3594.887867141022</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S11" t="n">
-        <v>3594.887867141022</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T11" t="n">
-        <v>3594.887867141022</v>
+        <v>4139.534279351133</v>
       </c>
       <c r="U11" t="n">
-        <v>3594.887867141022</v>
+        <v>3881.179369947545</v>
       </c>
       <c r="V11" t="n">
-        <v>3237.398452267271</v>
+        <v>3523.689955073794</v>
       </c>
       <c r="W11" t="n">
-        <v>2841.007102567618</v>
+        <v>3127.298605374142</v>
       </c>
       <c r="X11" t="n">
-        <v>2429.287103735365</v>
+        <v>2715.578606541889</v>
       </c>
       <c r="Y11" t="n">
-        <v>2023.949833690256</v>
+        <v>2310.241336496779</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.0212483742757</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C12" t="n">
-        <v>521.5153448917805</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D12" t="n">
-        <v>417.6753864070655</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E12" t="n">
-        <v>312.9734526800027</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F12" t="n">
-        <v>219.3276223629069</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G12" t="n">
-        <v>125.2738505805109</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H12" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I12" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J12" t="n">
-        <v>71.89775734282044</v>
+        <v>358.9066862857211</v>
       </c>
       <c r="K12" t="n">
-        <v>662.38268391116</v>
+        <v>949.3916128540607</v>
       </c>
       <c r="L12" t="n">
-        <v>1499.181491994066</v>
+        <v>1786.190420936967</v>
       </c>
       <c r="M12" t="n">
-        <v>1499.181491994066</v>
+        <v>1786.190420936967</v>
       </c>
       <c r="N12" t="n">
-        <v>1880.58538792333</v>
+        <v>1786.190420936967</v>
       </c>
       <c r="O12" t="n">
-        <v>1880.58538792333</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P12" t="n">
-        <v>1880.58538792333</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q12" t="n">
-        <v>1880.58538792333</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R12" t="n">
-        <v>1880.58538792333</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.261140484585</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.381204782263</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U12" t="n">
-        <v>1472.6130087019</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V12" t="n">
-        <v>1267.639869841166</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.118492674383</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X12" t="n">
-        <v>907.6411464410461</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y12" t="n">
-        <v>767.9482577943385</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>486.1427916045499</v>
+        <v>528.4619233494857</v>
       </c>
       <c r="C13" t="n">
-        <v>486.1427916045499</v>
+        <v>356.4893602284017</v>
       </c>
       <c r="D13" t="n">
-        <v>486.1427916045499</v>
+        <v>253.4661667118979</v>
       </c>
       <c r="E13" t="n">
-        <v>486.1427916045499</v>
+        <v>253.4661667118979</v>
       </c>
       <c r="F13" t="n">
-        <v>481.7195638001579</v>
+        <v>253.4661667118979</v>
       </c>
       <c r="G13" t="n">
-        <v>315.4625940943901</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H13" t="n">
-        <v>171.6663256025445</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I13" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J13" t="n">
-        <v>129.3890855669785</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K13" t="n">
-        <v>355.9166867728156</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L13" t="n">
-        <v>710.6060080672364</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M13" t="n">
-        <v>1101.791803037487</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.283313913523</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O13" t="n">
-        <v>1834.711442593286</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.310654515187</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.310784755949</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.272171443122</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S13" t="n">
-        <v>2035.137123962257</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T13" t="n">
-        <v>1791.797776188157</v>
+        <v>2024.282876645158</v>
       </c>
       <c r="U13" t="n">
-        <v>1511.613327688461</v>
+        <v>1744.098428145462</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.90186029649</v>
+        <v>1462.386960753491</v>
       </c>
       <c r="W13" t="n">
-        <v>955.0494564690027</v>
+        <v>1187.534556926004</v>
       </c>
       <c r="X13" t="n">
-        <v>712.4855599148078</v>
+        <v>944.9706603718092</v>
       </c>
       <c r="Y13" t="n">
-        <v>486.1427916045499</v>
+        <v>718.6278920615513</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2177.531292217814</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="C14" t="n">
-        <v>1750.630562231114</v>
+        <v>1359.124948091691</v>
       </c>
       <c r="D14" t="n">
-        <v>1327.337941416114</v>
+        <v>935.8323272766909</v>
       </c>
       <c r="E14" t="n">
-        <v>901.3610015639716</v>
+        <v>509.8553874245484</v>
       </c>
       <c r="F14" t="n">
-        <v>476.2368197533718</v>
+        <v>491.5482594166814</v>
       </c>
       <c r="G14" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H14" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I14" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J14" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K14" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L14" t="n">
-        <v>71.89775734282044</v>
+        <v>1016.834244625407</v>
       </c>
       <c r="M14" t="n">
-        <v>695.6437112106956</v>
+        <v>2021.120346044465</v>
       </c>
       <c r="N14" t="n">
-        <v>1585.378458328099</v>
+        <v>2997.371404531166</v>
       </c>
       <c r="O14" t="n">
-        <v>2430.523108478911</v>
+        <v>3842.516054681978</v>
       </c>
       <c r="P14" t="n">
-        <v>3138.802387636838</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q14" t="n">
-        <v>3594.887867141022</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R14" t="n">
-        <v>3594.887867141022</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S14" t="n">
-        <v>3594.887867141022</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T14" t="n">
-        <v>3594.887867141022</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U14" t="n">
-        <v>3594.887867141022</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V14" t="n">
-        <v>3594.887867141022</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W14" t="n">
-        <v>3414.436925386706</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X14" t="n">
-        <v>3002.716926554453</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y14" t="n">
-        <v>2597.379656509343</v>
+        <v>2205.874042369921</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.0212483742757</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C15" t="n">
-        <v>521.5153448917805</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D15" t="n">
-        <v>417.6753864070655</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E15" t="n">
-        <v>312.9734526800027</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F15" t="n">
-        <v>219.3276223629069</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G15" t="n">
-        <v>125.2738505805109</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H15" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I15" t="n">
-        <v>71.89775734282044</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J15" t="n">
-        <v>71.89775734282044</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="K15" t="n">
-        <v>71.89775734282044</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="L15" t="n">
-        <v>71.89775734282044</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="M15" t="n">
-        <v>961.6325044602233</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="N15" t="n">
-        <v>1851.367251577626</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="O15" t="n">
-        <v>1880.58538792333</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="P15" t="n">
-        <v>1880.58538792333</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="Q15" t="n">
-        <v>1880.58538792333</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="R15" t="n">
-        <v>1880.58538792333</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.261140484585</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.381204782263</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U15" t="n">
-        <v>1472.6130087019</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V15" t="n">
-        <v>1267.639869841166</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.118492674383</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X15" t="n">
-        <v>907.6411464410461</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y15" t="n">
-        <v>767.9482577943385</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.078879867057</v>
+        <v>732.5030073394354</v>
       </c>
       <c r="C16" t="n">
-        <v>983.1063167459732</v>
+        <v>560.5304442183514</v>
       </c>
       <c r="D16" t="n">
-        <v>819.7895438727439</v>
+        <v>397.2136713451221</v>
       </c>
       <c r="E16" t="n">
-        <v>653.5813380255975</v>
+        <v>231.0054654979756</v>
       </c>
       <c r="F16" t="n">
-        <v>481.7195638001579</v>
+        <v>231.0054654979756</v>
       </c>
       <c r="G16" t="n">
-        <v>315.4625940943901</v>
+        <v>231.0054654979756</v>
       </c>
       <c r="H16" t="n">
-        <v>171.6663256025445</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I16" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J16" t="n">
-        <v>129.3890855669785</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K16" t="n">
-        <v>355.9166867728156</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L16" t="n">
-        <v>710.6060080672364</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M16" t="n">
-        <v>1101.791803037487</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.283313913523</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O16" t="n">
-        <v>1834.711442593286</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.310654515187</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.310784755949</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.310784755949</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S16" t="n">
-        <v>2252.310784755949</v>
+        <v>2191.478859909512</v>
       </c>
       <c r="T16" t="n">
-        <v>2252.310784755949</v>
+        <v>1948.139512135412</v>
       </c>
       <c r="U16" t="n">
-        <v>2252.310784755949</v>
+        <v>1948.139512135412</v>
       </c>
       <c r="V16" t="n">
-        <v>2089.003917271063</v>
+        <v>1666.428044743441</v>
       </c>
       <c r="W16" t="n">
-        <v>1814.151513443576</v>
+        <v>1391.575640915954</v>
       </c>
       <c r="X16" t="n">
-        <v>1571.587616889381</v>
+        <v>1149.011744361759</v>
       </c>
       <c r="Y16" t="n">
-        <v>1345.244848579123</v>
+        <v>922.668976051501</v>
       </c>
     </row>
     <row r="17">
@@ -5515,28 +5515,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>325.1003961287815</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1040.608704104281</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1970.233751723557</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>2974.519853142615</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>3950.770911629316</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M18" t="n">
-        <v>105.4776804749704</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N18" t="n">
-        <v>1194.79262694784</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>913.8534934449018</v>
+        <v>1015.432875853221</v>
       </c>
       <c r="C19" t="n">
-        <v>741.8809303238178</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D19" t="n">
-        <v>578.5641574505885</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E19" t="n">
-        <v>412.355951603442</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F19" t="n">
-        <v>412.355951603442</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1992.33777973203</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1847.778530848907</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="W19" t="n">
-        <v>1572.92612702142</v>
+        <v>1484.339540717674</v>
       </c>
       <c r="X19" t="n">
-        <v>1330.362230467225</v>
+        <v>1241.775644163479</v>
       </c>
       <c r="Y19" t="n">
-        <v>1104.019462156967</v>
+        <v>1015.432875853221</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5761,19 +5761,19 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3682.614429408222</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C22" t="n">
-        <v>3682.614429408222</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.614429408222</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561076</v>
+        <v>285.3972456818248</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335636</v>
+        <v>113.5354714563852</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.43821322394</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V22" t="n">
-        <v>4092.726745831969</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W22" t="n">
-        <v>3817.874342004482</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X22" t="n">
-        <v>3682.614429408222</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y22" t="n">
-        <v>3682.614429408222</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="23">
@@ -6001,16 +6001,16 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3861.878613549949</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>3689.906050428865</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>3526.589277555636</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>3360.38107170849</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>3188.51929748305</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3022.262327777282</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>5115.135670291427</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>4834.951221791732</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>4553.23975439976</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>4278.387350572273</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>4278.387350572273</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>4052.044582262015</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,25 +6302,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1861.413050227143</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1822.202732251165</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1540.491264859194</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1265.638861031707</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1265.638861031707</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1265.638861031707</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6481,10 +6481,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>775.6620294727279</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>603.6894663516439</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
         <v>274.1644876312681</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2271.4829827684</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1991.298534268705</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.587066876733</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.734663049246</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.170766495052</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>965.8279981847936</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.618246195026</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2467.904347614084</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3444.155406100785</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1015214887346</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N33" t="n">
-        <v>939.1015214887346</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O33" t="n">
-        <v>1828.582799500206</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2099.621208542961</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1819.436760043265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.725292651294</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.872888823807</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1020.308992269612</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326.3817789554925</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>326.3817789554925</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>326.3817789554925</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>326.3817789554925</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>326.3817789554925</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>326.3817789554925</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
         <v>202.0712816655526</v>
@@ -7128,19 +7128,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7183,13 +7183,13 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P38" t="n">
         <v>5115.135670291427</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>440.5322462326804</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>2119.408873334071</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1099.604879809199</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>857.040983255004</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>630.698214944746</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1779.567248143012</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.666518156312</v>
+        <v>1359.124948091691</v>
       </c>
       <c r="D41" t="n">
-        <v>1234.126251346466</v>
+        <v>935.8323272766909</v>
       </c>
       <c r="E41" t="n">
-        <v>1234.126251346466</v>
+        <v>509.8553874245484</v>
       </c>
       <c r="F41" t="n">
-        <v>809.0020695358658</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6630071253144</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="H41" t="n">
-        <v>106.7946285993492</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I41" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J41" t="n">
-        <v>80.53897563800069</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K41" t="n">
-        <v>80.53897563800069</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L41" t="n">
-        <v>970.2737227554036</v>
+        <v>1374.699383006876</v>
       </c>
       <c r="M41" t="n">
-        <v>1860.008469872806</v>
+        <v>1374.699383006876</v>
       </c>
       <c r="N41" t="n">
-        <v>2749.743216990209</v>
+        <v>2350.950441493577</v>
       </c>
       <c r="O41" t="n">
-        <v>3594.887867141022</v>
+        <v>3196.095091644389</v>
       </c>
       <c r="P41" t="n">
-        <v>3594.887867141022</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="Q41" t="n">
-        <v>3594.887867141022</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R41" t="n">
-        <v>3594.887867141022</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S41" t="n">
-        <v>3594.887867141022</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T41" t="n">
-        <v>3373.962296185655</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U41" t="n">
-        <v>3373.962296185655</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V41" t="n">
-        <v>3016.472881311905</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W41" t="n">
-        <v>3016.472881311905</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X41" t="n">
-        <v>2604.752882479652</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y41" t="n">
-        <v>2199.415612434542</v>
+        <v>2205.874042369921</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.0212483742757</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C42" t="n">
-        <v>521.5153448917805</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D42" t="n">
-        <v>417.6753864070655</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E42" t="n">
-        <v>312.9734526800027</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F42" t="n">
-        <v>219.3276223629069</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G42" t="n">
-        <v>125.2738505805109</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H42" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I42" t="n">
-        <v>71.89775734282044</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J42" t="n">
-        <v>71.89775734282044</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="K42" t="n">
-        <v>71.89775734282044</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="L42" t="n">
-        <v>71.89775734282044</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="M42" t="n">
-        <v>961.6325044602233</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="N42" t="n">
-        <v>1851.367251577626</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="O42" t="n">
-        <v>1880.58538792333</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="P42" t="n">
-        <v>1880.58538792333</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="Q42" t="n">
-        <v>1880.58538792333</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="R42" t="n">
-        <v>1880.58538792333</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.261140484585</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.381204782263</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U42" t="n">
-        <v>1472.6130087019</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V42" t="n">
-        <v>1267.639869841166</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.118492674383</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X42" t="n">
-        <v>907.6411464410461</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y42" t="n">
-        <v>767.9482577943385</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1155.078879867057</v>
+        <v>528.4619233494857</v>
       </c>
       <c r="C43" t="n">
-        <v>983.1063167459732</v>
+        <v>356.4893602284017</v>
       </c>
       <c r="D43" t="n">
-        <v>819.7895438727439</v>
+        <v>356.4893602284017</v>
       </c>
       <c r="E43" t="n">
-        <v>653.5813380255975</v>
+        <v>356.4893602284017</v>
       </c>
       <c r="F43" t="n">
-        <v>481.7195638001579</v>
+        <v>184.6275860029621</v>
       </c>
       <c r="G43" t="n">
-        <v>315.4625940943901</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H43" t="n">
-        <v>171.6663256025445</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I43" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J43" t="n">
-        <v>129.3890855669785</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K43" t="n">
-        <v>355.9166867728156</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L43" t="n">
-        <v>710.6060080672364</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M43" t="n">
-        <v>1101.791803037487</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.283313913523</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O43" t="n">
-        <v>1834.711442593286</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.310654515187</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.310784755949</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.272171443122</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S43" t="n">
-        <v>2205.272171443122</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T43" t="n">
-        <v>1961.932823669022</v>
+        <v>2024.282876645158</v>
       </c>
       <c r="U43" t="n">
-        <v>1961.932823669022</v>
+        <v>1744.098428145462</v>
       </c>
       <c r="V43" t="n">
-        <v>1961.932823669022</v>
+        <v>1462.386960753491</v>
       </c>
       <c r="W43" t="n">
-        <v>1814.151513443576</v>
+        <v>1187.534556926004</v>
       </c>
       <c r="X43" t="n">
-        <v>1571.587616889381</v>
+        <v>944.9706603718092</v>
       </c>
       <c r="Y43" t="n">
-        <v>1345.244848579123</v>
+        <v>718.6278920615513</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2177.531292217814</v>
+        <v>2247.882387078999</v>
       </c>
       <c r="C44" t="n">
-        <v>1750.630562231114</v>
+        <v>2098.707251676917</v>
       </c>
       <c r="D44" t="n">
-        <v>1327.337941416114</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="E44" t="n">
-        <v>901.3610015639716</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F44" t="n">
-        <v>476.2368197533718</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G44" t="n">
-        <v>71.89775734282044</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H44" t="n">
-        <v>71.89775734282044</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I44" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J44" t="n">
-        <v>71.89775734282044</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K44" t="n">
-        <v>71.89775734282044</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L44" t="n">
-        <v>961.6325044602233</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="M44" t="n">
-        <v>1851.367251577626</v>
+        <v>1257.143048124974</v>
       </c>
       <c r="N44" t="n">
-        <v>2741.101998695029</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O44" t="n">
-        <v>3586.246648845841</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P44" t="n">
-        <v>3594.887867141022</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q44" t="n">
-        <v>3594.887867141022</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R44" t="n">
-        <v>3594.887867141022</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S44" t="n">
-        <v>3594.887867141022</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T44" t="n">
-        <v>3594.887867141022</v>
+        <v>4139.534279351133</v>
       </c>
       <c r="U44" t="n">
-        <v>3594.887867141022</v>
+        <v>3881.179369947545</v>
       </c>
       <c r="V44" t="n">
-        <v>3594.887867141022</v>
+        <v>3881.179369947545</v>
       </c>
       <c r="W44" t="n">
-        <v>3414.436925386706</v>
+        <v>3484.788020247892</v>
       </c>
       <c r="X44" t="n">
-        <v>3002.716926554453</v>
+        <v>3073.068021415639</v>
       </c>
       <c r="Y44" t="n">
-        <v>2597.379656509343</v>
+        <v>2667.73075137053</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.0212483742757</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C45" t="n">
-        <v>521.5153448917805</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D45" t="n">
-        <v>417.6753864070655</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E45" t="n">
-        <v>312.9734526800027</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F45" t="n">
-        <v>219.3276223629069</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G45" t="n">
-        <v>125.2738505805109</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H45" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I45" t="n">
-        <v>71.89775734282044</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J45" t="n">
-        <v>71.89775734282044</v>
+        <v>366.3533292476329</v>
       </c>
       <c r="K45" t="n">
-        <v>71.89775734282044</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="L45" t="n">
-        <v>71.89775734282044</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="M45" t="n">
-        <v>961.6325044602233</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="N45" t="n">
-        <v>1851.367251577626</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="O45" t="n">
-        <v>1880.58538792333</v>
+        <v>956.8382558159725</v>
       </c>
       <c r="P45" t="n">
-        <v>1880.58538792333</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="Q45" t="n">
-        <v>1880.58538792333</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="R45" t="n">
-        <v>1880.58538792333</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.261140484585</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.381204782263</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U45" t="n">
-        <v>1472.6130087019</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V45" t="n">
-        <v>1267.639869841166</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.118492674383</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X45" t="n">
-        <v>907.6411464410461</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y45" t="n">
-        <v>767.9482577943385</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>337.8745314496909</v>
+        <v>528.4619233494857</v>
       </c>
       <c r="C46" t="n">
-        <v>337.8745314496909</v>
+        <v>356.4893602284017</v>
       </c>
       <c r="D46" t="n">
-        <v>337.8745314496909</v>
+        <v>356.4893602284017</v>
       </c>
       <c r="E46" t="n">
-        <v>171.6663256025445</v>
+        <v>356.4893602284017</v>
       </c>
       <c r="F46" t="n">
-        <v>171.6663256025445</v>
+        <v>231.0054654979756</v>
       </c>
       <c r="G46" t="n">
-        <v>171.6663256025445</v>
+        <v>231.0054654979756</v>
       </c>
       <c r="H46" t="n">
-        <v>171.6663256025445</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I46" t="n">
-        <v>71.89775734282044</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J46" t="n">
-        <v>129.3890855669785</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K46" t="n">
-        <v>355.9166867728156</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L46" t="n">
-        <v>710.6060080672364</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M46" t="n">
-        <v>1101.791803037487</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.283313913523</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O46" t="n">
-        <v>1834.711442593286</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.310654515187</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.310784755949</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.272171443122</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S46" t="n">
-        <v>2035.137123962257</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T46" t="n">
-        <v>1791.797776188157</v>
+        <v>2024.282876645158</v>
       </c>
       <c r="U46" t="n">
-        <v>1511.613327688461</v>
+        <v>1744.098428145462</v>
       </c>
       <c r="V46" t="n">
-        <v>1229.90186029649</v>
+        <v>1462.386960753491</v>
       </c>
       <c r="W46" t="n">
-        <v>955.0494564690027</v>
+        <v>1187.534556926004</v>
       </c>
       <c r="X46" t="n">
-        <v>712.4855599148078</v>
+        <v>944.9706603718092</v>
       </c>
       <c r="Y46" t="n">
-        <v>528.0405001617567</v>
+        <v>718.6278920615513</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>87.05611188819479</v>
       </c>
       <c r="M2" t="n">
-        <v>936.1532296846872</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>936.0015896197015</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>256.1307554008616</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,16 +8060,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>618.848654609434</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L3" t="n">
-        <v>784.1890535317962</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
@@ -8078,7 +8078,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>758.5002654165255</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>937.0340092178783</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>936.1532296846872</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O5" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2901673022356</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
@@ -8300,16 +8300,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>52.86607894832319</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>920.064994998797</v>
+        <v>172.0949298956461</v>
       </c>
       <c r="O6" t="n">
-        <v>921.6378271075471</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49310412327424</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>937.0340092178783</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M8" t="n">
-        <v>936.1532296846872</v>
+        <v>177.2778237013238</v>
       </c>
       <c r="N8" t="n">
-        <v>936.0015896197015</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
@@ -8537,22 +8537,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P9" t="n">
-        <v>104.754755730284</v>
+        <v>473.9064298354822</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8689,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>50.35049038315262</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>937.0340092178783</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>936.1532296846872</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>936.0015896197015</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>206.5024180439405</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
@@ -8768,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
@@ -8780,10 +8780,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>406.5994887481519</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>133.9864418936091</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8932,22 +8932,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>667.4776809477905</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>936.0015896197015</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>560.7509129461121</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M15" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>52.685158758287</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>254.4681238522057</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
         <v>753.0089771212694</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M18" t="n">
-        <v>26.3038179559056</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9649,19 +9649,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,25 +9713,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>43.61679235157382</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9740,7 +9740,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9889,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>356.8654072451563</v>
       </c>
       <c r="P26" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,28 +9950,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>71.84891570906657</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10363,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>355.5991224937308</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10442,16 +10442,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>105.0107851302144</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10685,10 +10685,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10916,16 +10916,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>852.2551465529502</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.14846281405143</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>937.0340092178783</v>
+        <v>249.8053951683313</v>
       </c>
       <c r="M41" t="n">
-        <v>936.1532296846872</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>936.0015896197015</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M42" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>52.685158758287</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>937.0340092178783</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>936.1532296846872</v>
+        <v>130.180843027158</v>
       </c>
       <c r="N44" t="n">
-        <v>936.0015896197015</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>46.3038651386963</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>921.8187472975834</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>920.064994998797</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>52.685158758287</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>146.8225845984034</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>333.9731646230788</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>59.69064356315825</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568371</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>402.7488832647053</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>213.7810038658839</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>93.05176614140763</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>25.99214466914856</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>135.7806963237598</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>153.4739695386591</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>106.2309441183558</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>55.69401775693346</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24414,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.13995159719323</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>229.7855238263079</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25125,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>228.0760643491791</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>19.29091348988663</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>22.13019988286487</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>66.44073542471733</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>301.7048304651014</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>37.00111402222302</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>68.15019490184642</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>125.8003826660205</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>274.9483386387716</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>213.7810038658839</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>45.91410070006337</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.47873147163472</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>511318.5515279083</v>
+        <v>579310.6131785749</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>511318.5515279082</v>
+        <v>579310.6131785752</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>646334.9636080645</v>
+        <v>646334.9636080643</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>646334.9636080642</v>
+        <v>646334.9636080645</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>646334.9636080645</v>
+        <v>646334.9636080643</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>646334.9636080645</v>
+        <v>646334.9636080643</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>646334.9636080645</v>
+        <v>646334.9636080643</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>511318.5515279082</v>
+        <v>579310.6131785749</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>511318.5515279082</v>
+        <v>579310.6131785749</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>349465.6008066979</v>
       </c>
       <c r="C2" t="n">
-        <v>349465.600806698</v>
+        <v>349465.6008066979</v>
       </c>
       <c r="D2" t="n">
-        <v>349465.600806698</v>
+        <v>349465.6008066979</v>
       </c>
       <c r="E2" t="n">
-        <v>266774.8964493432</v>
+        <v>302249.0155714303</v>
       </c>
       <c r="F2" t="n">
-        <v>266774.8964493432</v>
+        <v>302249.0155714303</v>
       </c>
       <c r="G2" t="n">
-        <v>337218.2418824686</v>
+        <v>337218.2418824685</v>
       </c>
       <c r="H2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="I2" t="n">
-        <v>337218.2418824686</v>
+        <v>337218.2418824684</v>
       </c>
       <c r="J2" t="n">
-        <v>337218.2418824684</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="K2" t="n">
         <v>337218.2418824685</v>
       </c>
       <c r="L2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="M2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824684</v>
       </c>
       <c r="N2" t="n">
         <v>337218.2418824685</v>
       </c>
       <c r="O2" t="n">
-        <v>266774.8964493432</v>
+        <v>302249.0155714302</v>
       </c>
       <c r="P2" t="n">
-        <v>266774.8964493431</v>
+        <v>302249.0155714302</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>301182.4016749751</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>165841.36523708</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>104169.2797816197</v>
+        <v>51711.33053014221</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>235145.2102775613</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>135122.0325442417</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83704.67560944587</v>
+        <v>142875.9771591371</v>
       </c>
       <c r="C4" t="n">
-        <v>83704.67560944588</v>
+        <v>142875.9771591372</v>
       </c>
       <c r="D4" t="n">
-        <v>83704.67560944588</v>
+        <v>50638.49755318346</v>
       </c>
       <c r="E4" t="n">
-        <v>5042.789771578539</v>
+        <v>5722.377098100938</v>
       </c>
       <c r="F4" t="n">
-        <v>5042.78977157854</v>
+        <v>5722.377098100938</v>
       </c>
       <c r="G4" t="n">
         <v>6392.292056030894</v>
@@ -26444,22 +26444,22 @@
         <v>6392.292056030894</v>
       </c>
       <c r="K4" t="n">
+        <v>6392.292056030894</v>
+      </c>
+      <c r="L4" t="n">
         <v>6392.292056030895</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>6392.292056030893</v>
+      </c>
+      <c r="N4" t="n">
         <v>6392.292056030894</v>
       </c>
-      <c r="M4" t="n">
-        <v>6392.292056030894</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6392.292056030895</v>
-      </c>
       <c r="O4" t="n">
-        <v>5042.78977157854</v>
+        <v>5722.377098100937</v>
       </c>
       <c r="P4" t="n">
-        <v>5042.78977157854</v>
+        <v>5722.377098100937</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>88269.89558054353</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>88269.89558054353</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>88269.89558054353</v>
+        <v>99906.58972465878</v>
       </c>
       <c r="E5" t="n">
-        <v>54642.29558054353</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="F5" t="n">
-        <v>54642.29558054353</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26508,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>54642.29558054353</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="P5" t="n">
-        <v>54642.29558054353</v>
+        <v>66278.98972465879</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123691.3720582666</v>
+        <v>-47261.36080460466</v>
       </c>
       <c r="C6" t="n">
-        <v>177491.0296167086</v>
+        <v>139143.3726101326</v>
       </c>
       <c r="D6" t="n">
-        <v>177491.0296167086</v>
+        <v>33079.14829177561</v>
       </c>
       <c r="E6" t="n">
-        <v>207089.8110972211</v>
+        <v>228280.2910305344</v>
       </c>
       <c r="F6" t="n">
-        <v>207089.8110972211</v>
+        <v>228280.2910305344</v>
       </c>
       <c r="G6" t="n">
-        <v>148906.6078563883</v>
+        <v>200854.2504860228</v>
       </c>
       <c r="H6" t="n">
-        <v>253075.8876380079</v>
+        <v>252565.5810161649</v>
       </c>
       <c r="I6" t="n">
-        <v>253075.887638008</v>
+        <v>252565.5810161649</v>
       </c>
       <c r="J6" t="n">
-        <v>17930.67736044648</v>
+        <v>107031.9110813484</v>
       </c>
       <c r="K6" t="n">
-        <v>253075.8876380079</v>
+        <v>252565.581016165</v>
       </c>
       <c r="L6" t="n">
-        <v>253075.8876380079</v>
+        <v>117443.5484719232</v>
       </c>
       <c r="M6" t="n">
-        <v>253075.8876380079</v>
+        <v>252565.5810161649</v>
       </c>
       <c r="N6" t="n">
-        <v>253075.8876380079</v>
+        <v>252565.581016165</v>
       </c>
       <c r="O6" t="n">
-        <v>207089.8110972212</v>
+        <v>228280.2910305343</v>
       </c>
       <c r="P6" t="n">
-        <v>207089.8110972211</v>
+        <v>228280.2910305343</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.7219667852554</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>898.7219667852554</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>898.7219667852554</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="E4" t="n">
-        <v>898.7219667852554</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="F4" t="n">
-        <v>898.7219667852554</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>898.7219667852554</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="P4" t="n">
-        <v>898.7219667852554</v>
+        <v>1090.114962576625</v>
       </c>
     </row>
   </sheetData>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.7219667852554</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>380.0619507876014</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852553</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610306</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852554</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>380.0619507876014</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>208.0293068585003</v>
+        <v>187.166099005634</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>2.872872650922204</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>296.8468361521186</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>278.5917095738316</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27833,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>200.7419213204369</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>37.29678580866903</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>380.0547238758163</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>54.90312664944073</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34701,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="M2" t="n">
-        <v>898.7219667852554</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>898.7219667852554</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>218.7397960448375</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>596.4494207761006</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L3" t="n">
-        <v>761.6739668175666</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>722.7356646217162</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>898.7219667852554</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O5" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>184.7148054920043</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35020,16 +35020,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>29.76929843599521</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>898.7219667852554</v>
+        <v>150.7519016821045</v>
       </c>
       <c r="O6" t="n">
-        <v>898.4659373853249</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>8.728503328464901</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>898.7219667852554</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M8" t="n">
-        <v>898.7219667852554</v>
+        <v>139.846560801892</v>
       </c>
       <c r="N8" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P9" t="n">
-        <v>82.98391452545532</v>
+        <v>452.1355886306535</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>20.93053089756609</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>898.7219667852554</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>898.7219667852554</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>898.7219667852554</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>169.1114586879164</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
@@ -35500,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>630.0464180483588</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>898.7219667852554</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>523.1755511358807</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M15" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>29.51326903606477</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>225.0481643666192</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
         <v>715.433615311038</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M18" t="n">
-        <v>3.207037443577619</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36369,19 +36369,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36609,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>319.4744478891323</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>50.0780745042379</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37083,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>319.4744478891327</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>83.23994392538575</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>829.083256830728</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>8.728503328464901</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>898.7219667852554</v>
+        <v>211.4933527357084</v>
       </c>
       <c r="M41" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>898.7219667852554</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M42" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>29.51326903606477</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>898.7219667852554</v>
+        <v>92.74958012772619</v>
       </c>
       <c r="N44" t="n">
-        <v>898.7219667852554</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>8.728503328465001</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>898.7219667852554</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>29.51326903606477</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
